--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 6 1 variable 11.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 6 1 variable 11.xlsx_with_dialog_acts.xlsx
@@ -903,12 +903,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -939,12 +939,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1119,12 +1119,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1227,12 +1227,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1371,12 +1371,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1407,12 +1407,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1479,12 +1479,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1587,12 +1587,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1623,12 +1623,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1659,12 +1659,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1947,12 +1947,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1983,12 +1983,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3099,12 +3099,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3495,12 +3495,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3639,12 +3639,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3675,12 +3675,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3895,12 +3895,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4691,12 +4691,12 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4907,12 +4907,12 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5627,12 +5627,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6059,12 +6059,12 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6347,12 +6347,12 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6491,12 +6491,12 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6671,12 +6671,12 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
